--- a/r-fundamentals-5/data/tflSubset.xlsx
+++ b/r-fundamentals-5/data/tflSubset.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2259,6 +2259,32 @@
         <v>6.5</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>03_21/22</t>
+        </is>
+      </c>
+      <c r="B147">
+        <v>155.2</v>
+      </c>
+      <c r="C147">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>04_21/22</t>
+        </is>
+      </c>
+      <c r="B148">
+        <v>158.4</v>
+      </c>
+      <c r="C148">
+        <v>6.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/r-fundamentals-5/data/tflSubset.xlsx
+++ b/r-fundamentals-5/data/tflSubset.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2240,10 +2240,10 @@
         </is>
       </c>
       <c r="B145">
-        <v>133</v>
+        <v>132.98470079</v>
       </c>
       <c r="C145">
-        <v>6.2</v>
+        <v>6.149277136</v>
       </c>
     </row>
     <row r="146">
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="B146">
-        <v>146.5</v>
+        <v>146.43823</v>
       </c>
       <c r="C146">
-        <v>6.5</v>
+        <v>6.486115140000001</v>
       </c>
     </row>
     <row r="147">
@@ -2266,10 +2266,10 @@
         </is>
       </c>
       <c r="B147">
-        <v>155.2</v>
+        <v>155.20298203</v>
       </c>
       <c r="C147">
-        <v>7.1</v>
+        <v>7.062506313</v>
       </c>
     </row>
     <row r="148">
@@ -2279,10 +2279,23 @@
         </is>
       </c>
       <c r="B148">
-        <v>158.4</v>
+        <v>158.38763834</v>
       </c>
       <c r="C148">
-        <v>6.9</v>
+        <v>6.866115832999999</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>05_21/22</t>
+        </is>
+      </c>
+      <c r="B149">
+        <v>150.07156739</v>
+      </c>
+      <c r="C149">
+        <v>6.789554679</v>
       </c>
     </row>
   </sheetData>

--- a/r-fundamentals-5/data/tflSubset.xlsx
+++ b/r-fundamentals-5/data/tflSubset.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2240,10 +2240,10 @@
         </is>
       </c>
       <c r="B145">
-        <v>132.98470079</v>
+        <v>133</v>
       </c>
       <c r="C145">
-        <v>6.149277136</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="146">
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="B146">
-        <v>146.43823</v>
+        <v>146.5</v>
       </c>
       <c r="C146">
-        <v>6.486115140000001</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="147">
@@ -2266,10 +2266,10 @@
         </is>
       </c>
       <c r="B147">
-        <v>155.20298203</v>
+        <v>155.2</v>
       </c>
       <c r="C147">
-        <v>7.062506313</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="148">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="B148">
-        <v>158.38763834</v>
+        <v>158.4</v>
       </c>
       <c r="C148">
-        <v>6.866115832999999</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="149">
@@ -2292,10 +2292,23 @@
         </is>
       </c>
       <c r="B149">
-        <v>150.07156739</v>
+        <v>150.1</v>
       </c>
       <c r="C149">
-        <v>6.789554679</v>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>06_21/22</t>
+        </is>
+      </c>
+      <c r="B150">
+        <v>173.4</v>
+      </c>
+      <c r="C150">
+        <v>7.100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/r-fundamentals-5/data/tflSubset.xlsx
+++ b/r-fundamentals-5/data/tflSubset.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2311,6 +2311,19 @@
         <v>7.100000000000001</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>07_21/22</t>
+        </is>
+      </c>
+      <c r="B151">
+        <v>199.4</v>
+      </c>
+      <c r="C151">
+        <v>8.799999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/r-fundamentals-5/data/tflSubset.xlsx
+++ b/r-fundamentals-5/data/tflSubset.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="B145">
-        <v>133</v>
+        <v>133.3</v>
       </c>
       <c r="C145">
         <v>6.2</v>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="B146">
-        <v>146.5</v>
+        <v>146.8</v>
       </c>
       <c r="C146">
         <v>6.5</v>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="B147">
-        <v>155.2</v>
+        <v>155.6</v>
       </c>
       <c r="C147">
         <v>7.1</v>
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="B148">
-        <v>158.4</v>
+        <v>158.7</v>
       </c>
       <c r="C148">
         <v>6.9</v>
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B149">
-        <v>150.1</v>
+        <v>150.4</v>
       </c>
       <c r="C149">
         <v>6.8</v>
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="B150">
-        <v>173.4</v>
+        <v>173.7</v>
       </c>
       <c r="C150">
         <v>7.100000000000001</v>
@@ -2318,10 +2318,153 @@
         </is>
       </c>
       <c r="B151">
-        <v>199.4</v>
+        <v>199.9</v>
       </c>
       <c r="C151">
         <v>8.799999999999999</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>08_21/22</t>
+        </is>
+      </c>
+      <c r="B152">
+        <v>199.1</v>
+      </c>
+      <c r="C152">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>09_21/22</t>
+        </is>
+      </c>
+      <c r="B153">
+        <v>207.1</v>
+      </c>
+      <c r="C153">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>10_21/22</t>
+        </is>
+      </c>
+      <c r="B154">
+        <v>140.5</v>
+      </c>
+      <c r="C154">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>11_21/22</t>
+        </is>
+      </c>
+      <c r="B155">
+        <v>183.7</v>
+      </c>
+      <c r="C155">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>12_21/22</t>
+        </is>
+      </c>
+      <c r="B156">
+        <v>193.2</v>
+      </c>
+      <c r="C156">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>13_21/22</t>
+        </is>
+      </c>
+      <c r="B157">
+        <v>197.1</v>
+      </c>
+      <c r="C157">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>01_22/23</t>
+        </is>
+      </c>
+      <c r="B158">
+        <v>213.8</v>
+      </c>
+      <c r="C158">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>02_22/23</t>
+        </is>
+      </c>
+      <c r="B159">
+        <v>220.1</v>
+      </c>
+      <c r="C159">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>03_22/23</t>
+        </is>
+      </c>
+      <c r="B160">
+        <v>209.3</v>
+      </c>
+      <c r="C160">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>04_22/23</t>
+        </is>
+      </c>
+      <c r="B161">
+        <v>218.4</v>
+      </c>
+      <c r="C161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>05_22/23</t>
+        </is>
+      </c>
+      <c r="B162">
+        <v>195.9</v>
+      </c>
+      <c r="C162">
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>

--- a/r-fundamentals-5/data/tflSubset.xlsx
+++ b/r-fundamentals-5/data/tflSubset.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2467,6 +2467,45 @@
         <v>7.9</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>06_22/23</t>
+        </is>
+      </c>
+      <c r="B163">
+        <v>211.8</v>
+      </c>
+      <c r="C163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>07_22/23</t>
+        </is>
+      </c>
+      <c r="B164">
+        <v>234.4</v>
+      </c>
+      <c r="C164">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>08_22/23</t>
+        </is>
+      </c>
+      <c r="B165">
+        <v>229.8</v>
+      </c>
+      <c r="C165">
+        <v>9.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/r-fundamentals-5/data/tflSubset.xlsx
+++ b/r-fundamentals-5/data/tflSubset.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="B158">
-        <v>213.8</v>
+        <v>214.2</v>
       </c>
       <c r="C158">
         <v>8.699999999999999</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B159">
-        <v>220.1</v>
+        <v>220.6</v>
       </c>
       <c r="C159">
         <v>9.4</v>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="B160">
-        <v>209.3</v>
+        <v>209.7</v>
       </c>
       <c r="C160">
         <v>8.4</v>
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="B161">
-        <v>218.4</v>
+        <v>219.1</v>
       </c>
       <c r="C161">
         <v>8</v>
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="B162">
-        <v>195.9</v>
+        <v>196.4</v>
       </c>
       <c r="C162">
         <v>7.9</v>
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="B163">
-        <v>211.8</v>
+        <v>212.5</v>
       </c>
       <c r="C163">
         <v>8</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="B164">
-        <v>234.4</v>
+        <v>235.2</v>
       </c>
       <c r="C164">
         <v>9.199999999999999</v>
@@ -2500,10 +2500,127 @@
         </is>
       </c>
       <c r="B165">
-        <v>229.8</v>
+        <v>230.7</v>
       </c>
       <c r="C165">
         <v>9.4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>09_22/23</t>
+        </is>
+      </c>
+      <c r="B166">
+        <v>241.1</v>
+      </c>
+      <c r="C166">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>10_22/23</t>
+        </is>
+      </c>
+      <c r="B167">
+        <v>185.4</v>
+      </c>
+      <c r="C167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>11_22/23</t>
+        </is>
+      </c>
+      <c r="B168">
+        <v>226.5</v>
+      </c>
+      <c r="C168">
+        <v>9.200000000000001</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>12_22/23</t>
+        </is>
+      </c>
+      <c r="B169">
+        <v>231.4</v>
+      </c>
+      <c r="C169">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>13_22/23</t>
+        </is>
+      </c>
+      <c r="B170">
+        <v>227.1</v>
+      </c>
+      <c r="C170">
+        <v>9.299999999999999</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>01_23/24</t>
+        </is>
+      </c>
+      <c r="B171">
+        <v>232.4</v>
+      </c>
+      <c r="C171">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>02_23/24</t>
+        </is>
+      </c>
+      <c r="B172">
+        <v>234.2</v>
+      </c>
+      <c r="C172">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>03_23/24</t>
+        </is>
+      </c>
+      <c r="B173">
+        <v>236</v>
+      </c>
+      <c r="C173">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>04_23/24</t>
+        </is>
+      </c>
+      <c r="B174">
+        <v>241.2</v>
+      </c>
+      <c r="C174">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/r-fundamentals-5/data/tflSubset.xlsx
+++ b/r-fundamentals-5/data/tflSubset.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2623,6 +2623,19 @@
         <v>9.5</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>05_23/24</t>
+        </is>
+      </c>
+      <c r="B175">
+        <v>216.3</v>
+      </c>
+      <c r="C175">
+        <v>8.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
